--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AE7284-ACE0-4A70-952F-635568F5CB3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6861628C-DBAC-4A6F-B0AA-26224ED8656A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,26 +22,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>User03</t>
-  </si>
-  <si>
-    <t>pass1234</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>password</t>
   </si>
+  <si>
+    <t>witte@gmail.com</t>
+  </si>
+  <si>
+    <t>witte</t>
+  </si>
+  <si>
+    <t>GridIds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -67,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,25 +366,49 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBBB763-F2CC-4231-8600-E62E0BEA62CF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
